--- a/document/関数、変数まとめ.xlsx
+++ b/document/関数、変数まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14955" windowHeight="13170" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14955" windowHeight="13170" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ichiran_function" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="336">
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
@@ -1176,26 +1176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PHP_funcitonからのHTML先頭タグの呼び出し</t>
-    <rPh sb="19" eb="21">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>echoで出力</t>
-    <rPh sb="5" eb="7">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$k_new</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1588,9 +1568,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>休館日一覧,kaishibi_kyukam,syuryobi_kyukam</t>
-  </si>
-  <si>
     <t>使うテーブルの指定(kyukambi)</t>
     <rPh sb="0" eb="1">
       <t>ツカ</t>
@@ -1729,19 +1706,6 @@
     <t>delete_sql</t>
   </si>
   <si>
-    <t>$sql_koushinの中にupdate_.......が格納//php_functionから参照</t>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HTML先頭タグの呼び出し</t>
     <rPh sb="4" eb="6">
       <t>セントウ</t>
@@ -2359,16 +2323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>php_functionからの呼び出し</t>
-    <rPh sb="15" eb="16">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>executionConfirm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2439,16 +2393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>js_functionから呼び出し</t>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>javasctipt function</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3123,6 +3067,133 @@
   </si>
   <si>
     <t>先頭タグ（文書型宣言、htmlタグ（開始のみ）、head、 body（開始のみ）JavaScript非対応時の記述）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dbErrorMessageCreate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー文テキスト</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP_funciton/commonから参照</t>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TimeChange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$row-&gt;hizuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP_funciton/ichiran_functionから参照</t>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$h_hizuke           $check_hizuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minyuryoku_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"hizuke"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力チェック</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isvalidDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hizuke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>script/maintenance.jsから参照</t>
+    <rPh sb="23" eb="25">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休館日一覧, kaishibi_kyukam, syuryobi_kyukam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ikkatu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Minyuryoku_Title_Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HyoujiKensu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$total_data, $currentpage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$sql_koushinの中にupdate_.......が格納//行数218に関数中身記述</t>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_function/commonからの参照</t>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite/maintenanceから参照</t>
+    <rPh sb="20" eb="22">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3130,7 +3201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3167,8 +3238,16 @@
       <name val="MS Mincho"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3208,6 +3287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3300,7 +3385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3358,27 +3443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3423,6 +3487,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3721,8 +3815,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3735,15 +3829,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="C1" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="18"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3756,14 +3850,14 @@
         <v>3</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="3"/>
@@ -3775,7 +3869,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
@@ -3787,11 +3881,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" ht="27">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
@@ -3799,11 +3893,11 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="27"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -3815,7 +3909,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" ht="27">
-      <c r="B8" s="27"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -3827,7 +3921,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" ht="27">
-      <c r="B9" s="27"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
         <v>20</v>
@@ -3839,7 +3933,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="27"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
         <v>21</v>
@@ -3851,7 +3945,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="27"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
         <v>22</v>
@@ -3863,11 +3957,11 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="27">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
@@ -3875,11 +3969,11 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="27"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
@@ -3887,25 +3981,25 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" ht="83.25" customHeight="1">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="27">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2"/>
@@ -3914,28 +4008,28 @@
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="27">
-      <c r="B16" s="40" t="s">
-        <v>157</v>
+      <c r="B16" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="27">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3946,14 +4040,14 @@
         <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="27">
-      <c r="B18" s="27"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6" t="s">
         <v>23</v>
@@ -3965,7 +4059,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3979,7 +4073,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="27"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2"/>
       <c r="D20" s="6" t="s">
         <v>29</v>
@@ -3991,7 +4085,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="27">
-      <c r="B21" s="27"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2"/>
       <c r="D21" s="6" t="s">
         <v>31</v>
@@ -4005,7 +4099,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="27">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4017,7 +4111,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="27"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
@@ -4025,7 +4119,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4041,7 +4135,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4057,7 +4151,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -4071,7 +4165,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -4085,7 +4179,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" ht="27">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="2"/>
@@ -4097,7 +4191,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" ht="27">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4108,16 +4202,16 @@
         <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" ht="121.5">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>58</v>
@@ -4126,14 +4220,14 @@
         <v>56</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="27">
-      <c r="B31" s="27"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2"/>
       <c r="D31" s="6" t="s">
         <v>22</v>
@@ -4145,7 +4239,7 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="2:7" ht="27">
-      <c r="B32" s="27"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2"/>
       <c r="D32" s="6" t="s">
         <v>59</v>
@@ -4157,7 +4251,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="27">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4168,86 +4262,86 @@
         <v>63</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="54">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="81">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="36" spans="2:7" ht="40.5">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="33" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="94.5">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="27">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4258,14 +4352,14 @@
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="81">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4276,14 +4370,14 @@
         <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="27"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2"/>
       <c r="D40" s="6" t="s">
         <v>80</v>
@@ -4295,7 +4389,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="27"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6" t="s">
         <v>82</v>
@@ -4307,7 +4401,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="27"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2"/>
       <c r="D42" s="6" t="s">
         <v>84</v>
@@ -4319,7 +4413,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="27"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2"/>
       <c r="D43" s="6" t="s">
         <v>86</v>
@@ -4331,7 +4425,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="27"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="2"/>
       <c r="D44" s="6" t="s">
         <v>89</v>
@@ -4358,7 +4452,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4373,17 +4467,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4403,25 +4497,25 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="67.5">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="67.5">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4435,11 +4529,11 @@
         <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="40.5">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4457,7 +4551,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="40.5">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4471,11 +4565,11 @@
         <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="27">
-      <c r="B8" s="27"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
         <v>111</v>
@@ -4487,7 +4581,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="27"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
         <v>113</v>
@@ -4501,7 +4595,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="27"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
         <v>116</v>
@@ -4515,7 +4609,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="27">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4544,8 +4638,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4558,13 +4652,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -4573,8 +4667,8 @@
       <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>272</v>
+      <c r="D3" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>94</v>
@@ -4585,207 +4679,207 @@
     </row>
     <row r="4" spans="2:6" ht="40.5">
       <c r="B4" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="54">
       <c r="B5" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>277</v>
+        <v>270</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27">
+      <c r="B7" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="27">
-      <c r="B7" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="34"/>
+        <v>174</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4804,10 +4898,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4819,13 +4913,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="9" t="s">
@@ -4881,13 +4975,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>196</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27">
       <c r="B7" s="15"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
@@ -4898,36 +4992,40 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
-        <v>131</v>
-      </c>
+    <row r="8" spans="2:6" ht="27">
+      <c r="B8" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+        <v>105</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="27">
       <c r="B9" s="15"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="27">
+    <row r="10" spans="2:6">
       <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -4935,10 +5033,10 @@
       <c r="B11" s="15"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -4946,10 +5044,10 @@
       <c r="B12" s="15"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4957,210 +5055,272 @@
       <c r="B13" s="15"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="54">
-      <c r="B14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" ht="27">
+      <c r="B14" s="15"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27">
+      <c r="B15" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="54">
+      <c r="B16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="15"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="40.5">
-      <c r="B16" s="15"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="27">
+      <c r="B19" s="15"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="27">
+      <c r="B21" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" ht="27">
-      <c r="B19" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="27">
-      <c r="B20" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="27">
-      <c r="B21" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+        <v>161</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5">
       <c r="B22" s="15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" ht="40.5">
+        <v>160</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="B24" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27">
+      <c r="B25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="40.5">
+      <c r="B27" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="11" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="12" t="s">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A32" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="42">
+        <v>246</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="2:5" ht="40.5" customHeight="1">
+      <c r="B33" s="13">
+        <v>262</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B28" s="13">
-        <v>246</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B29" s="13">
-        <v>262</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5172,13 +5332,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -5229,30 +5389,30 @@
     </row>
     <row r="6" spans="2:6" ht="40.5">
       <c r="B6" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -5262,7 +5422,7 @@
         <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -5273,7 +5433,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -5281,10 +5441,10 @@
       <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -5292,230 +5452,286 @@
       <c r="B11" s="15"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" ht="27">
       <c r="B12" s="15"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="40.5">
+    <row r="13" spans="2:6" ht="27">
       <c r="B13" s="15"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="15"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>194</v>
-      </c>
+    <row r="14" spans="2:6" ht="27">
+      <c r="B14" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="27">
       <c r="B15" s="15" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="2" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="27">
       <c r="B16" s="15" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27">
       <c r="B17" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="40.5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="54">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="40.5">
       <c r="B19" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="15"/>
+        <v>189</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="40.5">
+      <c r="B20" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="6" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="40.5">
-      <c r="B21" s="15"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+        <v>187</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="40.5">
       <c r="B22" s="15"/>
       <c r="C22" s="2"/>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
+        <v>185</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="54">
       <c r="B23" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="2" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="27">
-      <c r="B24" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="15"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="40.5">
+      <c r="B25" s="15"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" ht="27">
+      <c r="B26" s="15"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27">
+      <c r="B28" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13">
+        <v>93</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13">
+        <v>372</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="13">
-        <v>93</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="13">
-        <v>372</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5526,10 +5742,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5542,13 +5758,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -5571,181 +5787,181 @@
       <c r="B4" s="15"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="27">
       <c r="B5" s="15"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="27">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="2:6" ht="27">
+        <v>244</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="15"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="2:6" ht="27">
       <c r="B8" s="15"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="27">
       <c r="B9" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="27">
       <c r="B10" s="15"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="40.5">
       <c r="B11" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="27">
+        <v>235</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="40.5">
       <c r="B12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="40.5">
       <c r="B13" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>253</v>
+        <v>248</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="2:6" ht="27">
+        <v>252</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="26"/>
+        <v>254</v>
+      </c>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6" ht="27">
       <c r="B16" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>260</v>
+      <c r="F16" s="16" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="40.5">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5756,44 +5972,44 @@
         <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="27" t="s">
-        <v>261</v>
+      <c r="B18" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="27" t="s">
-        <v>263</v>
+      <c r="B19" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>268</v>
+      <c r="F19" s="16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="54">
       <c r="B20" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -5803,10 +6019,10 @@
         <v>113</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="40.5">
@@ -5816,91 +6032,65 @@
         <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" ht="27">
       <c r="B23" s="15"/>
       <c r="C23" s="2"/>
       <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="27">
-      <c r="B25" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>213</v>
-      </c>
+    <row r="25" spans="2:6">
+      <c r="B25" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="B27" s="13">
+        <v>275</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="13">
-        <v>275</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="13"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/関数、変数まとめ.xlsx
+++ b/document/関数、変数まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14955" windowHeight="13170" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14955" windowHeight="13170" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ichiran_function" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="kyuukanbi_toroku" sheetId="5" r:id="rId4"/>
     <sheet name="kyuukanbi_ichiran" sheetId="4" r:id="rId5"/>
     <sheet name="kyuukanbi_ikkatu_toroku" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="gyoji_toroku" sheetId="8" r:id="rId7"/>
+    <sheet name="gyou_ichiran" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="353">
   <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
@@ -3193,6 +3195,176 @@
     <t>sprite/maintenanceから参照</t>
     <rPh sb="20" eb="22">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$gyojikubun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTでﾌｫｰﾑの行事区分の中身を呼び出し</t>
+    <rPh sb="10" eb="12">
+      <t>ギョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$anchor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTでﾌｫｰﾑの段落名の中身の呼び出し</t>
+    <rPh sb="10" eb="12">
+      <t>ダンラク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$kaishibi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$syuryobi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTでﾌｫｰﾑの期間開始日の中身を呼び出し</t>
+    <rPh sb="10" eb="12">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTでﾌｫｰﾑの期間終了日の中身を呼び出し</t>
+    <rPh sb="10" eb="12">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo 文のｺﾒﾝﾄｱｳﾄ</t>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$check_kaishibi           $check_shuryobi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML文のｺﾒﾝﾄｱｳﾄ※いらないのであれば消す</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gyoujitoroku_minyuuryoku_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行事区分,ﾀｲﾄﾙ､ｺﾒﾝﾄ、期間、それぞれの未入力の場所のアラートがでる。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if の　else文のｺﾒﾝﾄｱｳﾄ</t>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションのｺﾒﾝﾄｱｳﾄ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$yusendo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTで優先度のチェックボタンの中身の呼び出し</t>
+    <rPh sb="5" eb="8">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3385,7 +3557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3488,6 +3660,15 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3509,13 +3690,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3829,11 +4013,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="18"/>
     </row>
     <row r="3" spans="2:7">
@@ -4467,14 +4651,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="30" t="s">
@@ -4652,13 +4836,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -4769,32 +4953,32 @@
       <c r="B11" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="13"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="2:6">
@@ -4913,13 +5097,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="9" t="s">
@@ -5260,34 +5444,34 @@
       <c r="B31" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="B32" s="42">
+      <c r="B32" s="36">
         <v>246</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="2:5" ht="40.5" customHeight="1">
       <c r="B33" s="13">
         <v>262</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1"/>
@@ -5332,13 +5516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -5689,41 +5873,41 @@
       <c r="B31" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="13">
         <v>93</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13">
         <v>372</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5744,7 +5928,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5758,13 +5942,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
@@ -6056,33 +6240,33 @@
       <c r="B26" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="13">
         <v>275</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="13"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6100,6 +6284,881 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="25.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="27">
+      <c r="B4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="27">
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="27">
+      <c r="B6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="27">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="27">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" ht="27">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="27">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" ht="27">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="27">
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" ht="27">
+      <c r="B14" s="15"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="27">
+      <c r="B15" s="15"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" ht="27">
+      <c r="B16" s="15"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27">
+      <c r="B17" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27">
+      <c r="B18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="54">
+      <c r="B19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="15"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="40.5">
+      <c r="B21" s="15"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" ht="27">
+      <c r="B22" s="15"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="2:6" ht="27">
+      <c r="B24" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="40.5">
+      <c r="B25" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="27">
+      <c r="B27" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27">
+      <c r="B28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" ht="40.5">
+      <c r="B30" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46">
+        <v>100</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A36"/>
+      <c r="B36" s="13">
+        <v>207</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="A37"/>
+      <c r="B37" s="13">
+        <v>343</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1">
+      <c r="A40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="25.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="27">
+      <c r="B4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="27">
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="40.5">
+      <c r="B6" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="27">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" ht="27">
+      <c r="B10" s="15"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" ht="27">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" ht="27">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" ht="27">
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" ht="27">
+      <c r="B14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="27">
+      <c r="B15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="27">
+      <c r="B16" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27">
+      <c r="B17" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="40.5">
+      <c r="B19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="40.5">
+      <c r="B20" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="40.5">
+      <c r="B22" s="15"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="54">
+      <c r="B23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="15"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="40.5">
+      <c r="B25" s="15"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" ht="27">
+      <c r="B26" s="15"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="27">
+      <c r="B28" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13">
+        <v>7</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="2:5" s="1" customFormat="1">
+      <c r="B33" s="13"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="2:5" s="1" customFormat="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
